--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2514226.757679261</v>
+        <v>2511891.646477281</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>353.8635853373769</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>286.9977044806033</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>92.31080712600355</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2705165323378</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>110.3925137801263</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>345.7367844057995</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.21585393264188</v>
+        <v>176.410837212323</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091488</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>125.9673299442106</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>84.6947366044287</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>107.9721668030625</v>
+        <v>27.0291980517598</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.91369288257668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.7077656527116</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>189.2380031216297</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>54.4574018039584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>166.8182344285488</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>98.7489785493142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3241,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.645282606231932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>112.5133406574299</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.8019480235358</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>106.365256562042</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1587.556048344953</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1587.556048344953</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
         <v>844.329830759459</v>
@@ -4325,19 +4325,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1607.934920996351</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1234.469162735271</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.556048344953</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>343.626060018204</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>638.3296170496758</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>609.1284824998271</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>609.1284824998271</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>609.1284824998271</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>461.215388917434</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>461.215388917434</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>293.2289242257126</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4900260892188</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1057.910612541375</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>829.9210616433572</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>609.1284824998271</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>918.4726736852001</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D5" t="n">
-        <v>560.2069750784497</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>174.4187224802054</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,10 +4632,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4644,28 +4644,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>551.2876347907471</v>
       </c>
       <c r="L6" t="n">
-        <v>607.1380332666179</v>
+        <v>845.9911918222188</v>
       </c>
       <c r="M6" t="n">
-        <v>970.4000522258378</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.685180822783</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.9439354791607</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>623.9439354791607</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329314</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>638.3033838959707</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>638.3033838959707</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.3033838959707</v>
+        <v>546.2888279392355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1751.913851851648</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.147236421175</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>986.3598813409312</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.613315601759</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738519</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510506</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510506</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473546</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.054359575528</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780431998</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>866.4638174991042</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1920.063992790046</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2343.687142285114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1786.311582407852</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>883.1197288741665</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6555,7 +6555,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,16 +7014,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898187001</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4041655335318</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>664.287526121196</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>516.3744325388029</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.5911984019045</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.4330134067486</v>
       </c>
       <c r="L6" t="n">
-        <v>14.25823202432821</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-2.348819704608866e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.64330621514988</v>
+        <v>121.5862749664526</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.9182872993606</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.8768876993832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>96.94647126761447</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>119.3662399606953</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.6564717779741</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.1866975757054</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>32.90770736550131</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.78270532855896</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>60.8815645365858</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26314,37 +26314,37 @@
         <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
@@ -26372,13 +26372,13 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744251</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>8727.256391744269</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744304</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744286</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744297</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744297</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706904.3213479274</v>
+        <v>-706904.3213479276</v>
       </c>
       <c r="C6" t="n">
-        <v>407847.4622279922</v>
+        <v>407847.4622279926</v>
       </c>
       <c r="D6" t="n">
-        <v>247831.9994799925</v>
+        <v>247831.9994799927</v>
       </c>
       <c r="E6" t="n">
-        <v>190276.366736748</v>
+        <v>190241.6288113127</v>
       </c>
       <c r="F6" t="n">
-        <v>515688.8285441034</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="G6" t="n">
-        <v>515688.8285441034</v>
+        <v>515654.0906186675</v>
       </c>
       <c r="H6" t="n">
-        <v>515688.8285441034</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="I6" t="n">
-        <v>515688.8285441035</v>
+        <v>515654.0906186679</v>
       </c>
       <c r="J6" t="n">
-        <v>348083.6507341207</v>
+        <v>348048.9128086853</v>
       </c>
       <c r="K6" t="n">
-        <v>515688.8285441035</v>
+        <v>515654.0906186679</v>
       </c>
       <c r="L6" t="n">
-        <v>467394.8585359126</v>
+        <v>467360.1206104772</v>
       </c>
       <c r="M6" t="n">
-        <v>430633.8006085918</v>
+        <v>430599.0626831559</v>
       </c>
       <c r="N6" t="n">
-        <v>515688.8285441034</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="O6" t="n">
-        <v>515688.8285441035</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="P6" t="n">
-        <v>515688.8285441034</v>
+        <v>515654.0906186677</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8194562833060672</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>62.24326423680969</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>12.48578807789703</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>33.31413681975695</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>296.4835319615851</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>3.504184311613528</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.6161262492954</v>
+        <v>3.421142969614266</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047134</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>243.7637707342584</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>539.5330155967683</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>687.0167715190038</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>295.974394015948</v>
+        <v>270.4557004614709</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>314.4610577451606</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33275,10 +33275,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>414.9172504145583</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>476.0648089385468</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>308.1572428165614</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>232.35237855373</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327591</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>316.0205096502334</v>
       </c>
       <c r="L6" t="n">
-        <v>311.9385926621783</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>405.558608182438</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>544.4205270745593</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35887,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>161.9999866016177</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.4792836591391</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>283.575538331225</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37555,10 +37555,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5104291586726</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>165.5609983721169</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
